--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F008BB2-925B-924F-9105-90F92F48943D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C83CB50-E270-F649-9B2C-E78F69373039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="28800" yWindow="-4160" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
   <si>
     <t>NAME</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Trait</t>
   </si>
   <si>
-    <t>Mapped trait</t>
-  </si>
-  <si>
     <t>Background trait</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
     <t>Yes|No</t>
   </si>
   <si>
@@ -199,15 +193,9 @@
     <t>EFOs that best match entered “background trait”</t>
   </si>
   <si>
-    <t>An identifier for the file containing full summary statistics for this study (if available)</t>
-  </si>
-  <si>
     <t>summary_statistics_assembly</t>
   </si>
   <si>
-    <t>Genome assembly of the summary statitistics</t>
-  </si>
-  <si>
     <t>GRCh38</t>
   </si>
   <si>
@@ -286,9 +274,6 @@
     <t>country_recruitement</t>
   </si>
   <si>
-    <t>Ancestry description</t>
-  </si>
-  <si>
     <t>For founder or genetically isolated population, provide  description. If multiple founder/genetically isolated populations are included for the same ancestry category separate using "|"</t>
   </si>
   <si>
@@ -466,9 +451,6 @@
     <t>proxy_variant</t>
   </si>
   <si>
-    <t>Extra information</t>
-  </si>
-  <si>
     <t>Free text to add extra information eg. conditional analysis</t>
   </si>
   <si>
@@ -529,15 +511,9 @@
     <t>cohort</t>
   </si>
   <si>
-    <t>Comma separated list of the named cohorts the discovery samples belonged to</t>
-  </si>
-  <si>
     <t>UKBB, FINRISK</t>
   </si>
   <si>
-    <t>Cohort</t>
-  </si>
-  <si>
     <t>cohort_id</t>
   </si>
   <si>
@@ -554,37 +530,40 @@
   </si>
   <si>
     <t>MANDATORY-METADATA</t>
+  </si>
+  <si>
+    <t>Reported trait</t>
+  </si>
+  <si>
+    <t>Cohort(s)</t>
+  </si>
+  <si>
+    <t>Comma separated list of cohort(s) represented in the discovery sample</t>
+  </si>
+  <si>
+    <t>Genome assembly for the summary statistics</t>
+  </si>
+  <si>
+    <t>Path or URL pointing to the summary statistics file. Including file name.</t>
+  </si>
+  <si>
+    <t>Founder/Genetically isolated population description</t>
+  </si>
+  <si>
+    <t>p-value annotation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -622,14 +601,16 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -651,23 +632,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,601 +963,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
-    <col min="13" max="13" width="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="23.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="96" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="L7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="L20" s="5" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>168</v>
-      </c>
-      <c r="L20" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1594,566 +1573,491 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="5"/>
+    <col min="14" max="14" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="N6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+      <c r="C14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="C15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="A16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C16" xr:uid="{692A23DE-1971-9644-BCB5-0858E868D84D}"/>
@@ -2166,346 +2070,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE6B5-99CE-7744-8022-5400F74ED3C6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F7"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="8" customWidth="1"/>
-    <col min="2" max="2" width="88.1640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="35.83203125" style="8" customWidth="1"/>
-    <col min="10" max="11" width="10.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" style="8" customWidth="1"/>
-    <col min="15" max="29" width="10.5" style="8" customWidth="1"/>
-    <col min="30" max="16384" width="11.1640625" style="8"/>
+    <col min="1" max="1" width="22" style="7" customWidth="1"/>
+    <col min="2" max="2" width="88.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" style="7" customWidth="1"/>
+    <col min="10" max="11" width="10.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="44.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="7" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="7" customWidth="1"/>
+    <col min="15" max="29" width="10.5" style="7" customWidth="1"/>
+    <col min="30" max="16384" width="11.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>110</v>
+      <c r="N1" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="C2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>109</v>
+      <c r="N2" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="L3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>105</v>
+      <c r="A3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>102</v>
+      <c r="A4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="b">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="b">
+      <c r="F5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="b">
+        <v>92</v>
+      </c>
+      <c r="C6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="b">
+      <c r="F6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>92</v>
+      <c r="A7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>88</v>
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>85</v>
+      <c r="A9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>82</v>
+      <c r="A10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>78</v>
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3507,179 +3410,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4CB50-F135-6F43-A6BC-AC27D4D7EACE}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" customWidth="1"/>
-    <col min="13" max="13" width="140.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="23.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="140.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="L3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="L5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C83CB50-E270-F649-9B2C-E78F69373039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4078039-53F9-2947-AB1B-5AB3E2D2C724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-4160" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="170">
   <si>
     <t>NAME</t>
   </si>
@@ -157,7 +157,7 @@
     <t>Study description</t>
   </si>
   <si>
-    <t>Trait</t>
+    <t>Mapped trait</t>
   </si>
   <si>
     <t>Background trait</t>
@@ -223,15 +223,9 @@
     <t>The trait under investigation</t>
   </si>
   <si>
-    <t>Targeted genotyping array</t>
-  </si>
-  <si>
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>cheksum</t>
-  </si>
-  <si>
     <t>md5 checksum of the summary stats file</t>
   </si>
   <si>
@@ -346,9 +340,6 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>Indication of the stage of the discovery process</t>
-  </si>
-  <si>
     <t>stage</t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t>Other allele</t>
   </si>
   <si>
-    <t>^[actgACTG]*$</t>
-  </si>
-  <si>
     <t>The other allele at the locus</t>
   </si>
   <si>
@@ -551,6 +539,15 @@
   </si>
   <si>
     <t>p-value annotation</t>
+  </si>
+  <si>
+    <t>checksum</t>
+  </si>
+  <si>
+    <t>^[actgACTG?]*$</t>
+  </si>
+  <si>
+    <t>Stage of the experimental design</t>
   </si>
 </sst>
 </file>
@@ -963,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="H1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,16 +988,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -1052,10 +1049,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
@@ -1073,13 +1070,13 @@
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1104,9 +1101,7 @@
       <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="I4" s="1"/>
       <c r="L4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1306,15 +1301,15 @@
         <v>54</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>0</v>
@@ -1332,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1361,7 +1356,7 @@
         <v>55</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1427,7 +1422,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -1450,28 +1445,28 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1479,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1505,10 +1500,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C19" s="5" t="b">
         <v>1</v>
@@ -1526,18 +1521,18 @@
         <v>24</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" s="5" t="b">
         <v>1</v>
@@ -1555,10 +1550,10 @@
         <v>24</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1572,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BB387-D897-2449-8E3B-2908679801E7}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,16 +1598,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -1636,7 +1631,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1644,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>0</v>
@@ -1670,10 +1665,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
@@ -1691,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N3" s="5" t="b">
         <v>0</v>
@@ -1699,10 +1694,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="5" t="b">
         <v>0</v>
@@ -1720,7 +1715,7 @@
         <v>24</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N4" s="5" t="b">
         <v>1</v>
@@ -1728,10 +1723,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="b">
         <v>0</v>
@@ -1755,7 +1750,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N5" s="5" t="b">
         <v>1</v>
@@ -1763,10 +1758,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C6" s="5" t="b">
         <v>0</v>
@@ -1784,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N6" s="5" t="b">
         <v>1</v>
@@ -1792,10 +1787,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5" t="b">
         <v>0</v>
@@ -1813,7 +1808,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="N7" s="5" t="b">
         <v>1</v>
@@ -1821,10 +1816,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>0</v>
@@ -1842,18 +1837,18 @@
         <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="5" t="b">
         <v>0</v>
@@ -1871,18 +1866,18 @@
         <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>0</v>
@@ -1897,18 +1892,18 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C11" s="5" t="b">
         <v>0</v>
@@ -1923,18 +1918,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>0</v>
@@ -1949,18 +1944,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="5" t="b">
         <v>0</v>
@@ -1975,18 +1970,18 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="5" t="b">
         <v>0</v>
@@ -2001,18 +1996,18 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="b">
         <v>0</v>
@@ -2030,15 +2025,15 @@
         <v>24</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" s="5" t="b">
         <v>0</v>
@@ -2053,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2066,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2100,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -2133,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,15 +2157,15 @@
         <v>31</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="b">
         <v>1</v>
@@ -2188,18 +2183,18 @@
         <v>24</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7" t="b">
         <v>1</v>
@@ -2217,15 +2212,15 @@
         <v>58</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="7" t="b">
         <v>1</v>
@@ -2243,15 +2238,15 @@
         <v>58</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="7" t="b">
         <v>1</v>
@@ -2269,15 +2264,15 @@
         <v>58</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="b">
         <v>1</v>
@@ -2295,18 +2290,18 @@
         <v>24</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7" t="b">
         <v>1</v>
@@ -2324,18 +2319,18 @@
         <v>24</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7" t="b">
         <v>0</v>
@@ -2353,15 +2348,15 @@
         <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7" t="b">
         <v>1</v>
@@ -2379,15 +2374,15 @@
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7" t="b">
         <v>1</v>
@@ -2405,10 +2400,10 @@
         <v>24</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3438,16 +3433,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -3499,7 +3494,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="b">
@@ -3519,12 +3514,12 @@
       </c>
       <c r="I3" s="1"/>
       <c r="L3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
@@ -3543,15 +3538,15 @@
       </c>
       <c r="I4" s="1"/>
       <c r="L4" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -3570,10 +3565,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="L5" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4078039-53F9-2947-AB1B-5AB3E2D2C724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0983DEED-3B5D-634A-8144-090D039448DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <t>Linking associations with study. Must match the study tag in the study table</t>
   </si>
   <si>
-    <t>^GCST\d+*$</t>
-  </si>
-  <si>
     <t>GCST007280</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>Stage of the experimental design</t>
+  </si>
+  <si>
+    <t>^GCST\d+$</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,10 +994,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -1049,11 +1049,11 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
@@ -1070,13 +1070,13 @@
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1301,7 +1301,7 @@
         <v>54</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1309,25 +1309,25 @@
         <v>88</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1422,7 +1422,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>1</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>62</v>
@@ -1474,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1500,60 +1500,60 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="L19" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1604,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N6" s="5" t="b">
         <v>1</v>
@@ -1837,7 +1837,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>127</v>
@@ -1866,7 +1866,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>124</v>
@@ -2065,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE6B5-99CE-7744-8022-5400F74ED3C6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2101,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -2165,7 +2165,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7" t="b">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,10 +3439,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0983DEED-3B5D-634A-8144-090D039448DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFFEDF0-43B6-A043-83C5-904A788A3823}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="35500" yWindow="-3320" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4CB50-F135-6F43-A6BC-AC27D4D7EACE}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="b">
         <v>0</v>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFFEDF0-43B6-A043-83C5-904A788A3823}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1538674-D3A7-F541-B488-E839D16A07B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35500" yWindow="-3320" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
@@ -3406,7 +3406,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7" t="b">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7" t="b">
         <v>0</v>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1538674-D3A7-F541-B488-E839D16A07B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71616C4A-619B-AA41-A35A-7192C8F969E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35500" yWindow="-3320" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="38260" yWindow="1140" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -2065,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE6B5-99CE-7744-8022-5400F74ED3C6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2333,7 +2333,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7" t="b">
         <v>0</v>
@@ -3405,7 +3405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4CB50-F135-6F43-A6BC-AC27D4D7EACE}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71616C4A-619B-AA41-A35A-7192C8F969E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AD9FFC-B1DA-7F4B-9728-844F85EE7D2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38260" yWindow="1140" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="28800" yWindow="-2780" windowWidth="51160" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">association!$C$1:$C$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">study!$C$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">study!$C$1:$C$19</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
   <si>
     <t>NAME</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>^GCST\d+$</t>
+  </si>
+  <si>
+    <t>readme_file</t>
+  </si>
+  <si>
+    <t>Readme file</t>
+  </si>
+  <si>
+    <t>Path or URL pointing to the file containing additional information for the provided summary statistics file</t>
   </si>
 </sst>
 </file>
@@ -958,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,10 +1480,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C18" s="5" t="b">
         <v>1</v>
@@ -1486,24 +1495,21 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="L18" s="5" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" s="5" t="b">
         <v>1</v>
@@ -1515,44 +1521,73 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="C21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1567,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BB387-D897-2449-8E3B-2908679801E7}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2065,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE6B5-99CE-7744-8022-5400F74ED3C6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AD9FFC-B1DA-7F4B-9728-844F85EE7D2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC970E4-2DA4-6143-976A-EC96520DC5E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2780" windowWidth="51160" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="28800" yWindow="-2780" windowWidth="51160" windowHeight="17540" activeTab="1" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -541,9 +541,6 @@
     <t>checksum</t>
   </si>
   <si>
-    <t>^[actgACTG?]*$</t>
-  </si>
-  <si>
     <t>Stage of the experimental design</t>
   </si>
   <si>
@@ -557,6 +554,9 @@
   </si>
   <si>
     <t>Path or URL pointing to the file containing additional information for the provided summary statistics file</t>
+  </si>
+  <si>
+    <t>^[actgACTG?-]*$</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +1079,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>145</v>
@@ -1480,28 +1480,28 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BB387-D897-2449-8E3B-2908679801E7}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1872,7 +1872,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>127</v>
@@ -1901,7 +1901,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>124</v>
@@ -2200,7 +2200,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="7" t="b">
         <v>1</v>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC970E4-2DA4-6143-976A-EC96520DC5E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B1D7B-B504-1541-8682-67185FDF485B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2780" windowWidth="51160" windowHeight="17540" activeTab="1" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150BB387-D897-2449-8E3B-2908679801E7}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B1D7B-B504-1541-8682-67185FDF485B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE85AAD-1D14-084E-8EB8-06C54CC4AFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
@@ -970,7 +970,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>24</v>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dsuveges/repositories/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE85AAD-1D14-084E-8EB8-06C54CC4AFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4576D16-B110-2644-962C-86ACB87F9E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="31380" yWindow="-2100" windowWidth="44240" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="174">
   <si>
     <t>NAME</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>^[actgACTG?-]*$</t>
+  </si>
+  <si>
+    <t>GRCh38|GRCh37|NCBI36|NCBI35|NCBI34</t>
   </si>
 </sst>
 </file>
@@ -970,7 +973,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5" t="b">
         <v>1</v>
@@ -1452,7 +1455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>166</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5" t="b">
         <v>1</v>
@@ -1478,7 +1481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>169</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="5" t="b">
         <v>1</v>
@@ -1532,8 +1535,11 @@
       <c r="L19" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>151</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>153</v>
       </c>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/dsuveges/repositories/gwas-template-services/schema_definitions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4576D16-B110-2644-962C-86ACB87F9E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCAB93-965C-8B44-8001-6DF4002B8B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="-2100" windowWidth="44240" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="31380" yWindow="-2100" windowWidth="44240" windowHeight="17540" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="179">
   <si>
     <t>NAME</t>
   </si>
@@ -560,6 +560,21 @@
   </si>
   <si>
     <t>GRCh38|GRCh37|NCBI36|NCBI35|NCBI34</t>
+  </si>
+  <si>
+    <t>Aboriginal Australian|African American or Afro-Caribbean|African unspecified|Asian unspecified|Central Asian|Circumpolar peoples|East Asian|European|Greater Middle Eastern (Middle Eastern, North African or Persian)|Hispanic or Latin American|Native American|NR|Oceanian|Other|Other admixed ancestry|South Asian|South East Asian|Sub-Saharan African</t>
+  </si>
+  <si>
+    <t>Initial extraction</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>discovery, replication</t>
+  </si>
+  <si>
+    <t>yes, no</t>
   </si>
 </sst>
 </file>
@@ -972,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="C1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1216,9 @@
       <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="L7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1609,7 +1626,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2106,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE6B5-99CE-7744-8022-5400F74ED3C6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2223,6 +2240,9 @@
       <c r="G3" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="L3" s="7" t="s">
         <v>99</v>
       </c>
@@ -2364,6 +2384,9 @@
       </c>
       <c r="L8" s="7" t="s">
         <v>81</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3446,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED4CB50-F135-6F43-A6BC-AC27D4D7EACE}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3577,7 +3600,9 @@
       <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>68</v>
       </c>
@@ -3604,7 +3629,9 @@
       <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>65</v>
       </c>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCAB93-965C-8B44-8001-6DF4002B8B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C820726-8D3D-FF49-A343-F01C3E6A2EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="-2100" windowWidth="44240" windowHeight="17540" activeTab="2" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -559,9 +559,6 @@
     <t>^[actgACTG?-]*$</t>
   </si>
   <si>
-    <t>GRCh38|GRCh37|NCBI36|NCBI35|NCBI34</t>
-  </si>
-  <si>
     <t>Aboriginal Australian|African American or Afro-Caribbean|African unspecified|Asian unspecified|Central Asian|Circumpolar peoples|East Asian|European|Greater Middle Eastern (Middle Eastern, North African or Persian)|Hispanic or Latin American|Native American|NR|Oceanian|Other|Other admixed ancestry|South Asian|South East Asian|Sub-Saharan African</t>
   </si>
   <si>
@@ -575,6 +572,9 @@
   </si>
   <si>
     <t>yes, no</t>
+  </si>
+  <si>
+    <t>GRCh38|GRCh37|NCBI36|NCBI35|NCBI34|NA</t>
   </si>
 </sst>
 </file>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1217,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>35</v>
@@ -1553,7 +1553,7 @@
         <v>53</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EEE6B5-99CE-7744-8022-5400F74ED3C6}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -2241,7 +2241,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>99</v>
@@ -2386,7 +2386,7 @@
         <v>81</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3601,7 +3601,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>68</v>
@@ -3630,7 +3630,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>65</v>

--- a/schema_definitions/template_schema_v1.2.xlsx
+++ b/schema_definitions/template_schema_v1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsuveges/Project/gwas-template-services/schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C820726-8D3D-FF49-A343-F01C3E6A2EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F85767-B5DD-9C40-B98E-1789A8BBA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
+    <workbookView xWindow="38600" yWindow="2280" windowWidth="28800" windowHeight="17540" xr2:uid="{ED582597-DC63-654C-87F3-6CB4F7FD90A0}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
     <t>yes, no</t>
   </si>
   <si>
-    <t>GRCh38|GRCh37|NCBI36|NCBI35|NCBI34|NA</t>
+    <t>GRCh38|GRCh37|NCBI36|NCBI35|NCBI34|NR</t>
   </si>
 </sst>
 </file>
@@ -987,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F5AB58-2CE3-8246-A104-E60B298CD92A}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
